--- a/excel/finished/7高炉/7热风炉参数月报.xlsx
+++ b/excel/finished/7高炉/7热风炉参数月报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="热风炉月报" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>BF7_L2C_HS_1Exhaust2GasTemp_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_HS_1OvenGrateTemp_1d_avg</t>
+    <t>BF7_L2C_HS1_OvenGrateTemp_1d_avg</t>
   </si>
   <si>
     <t>BF7_L2C_HS_2CombustionChamberTemp_1d_avg</t>
@@ -202,7 +202,7 @@
     <t>BF7_L2C_HS_3Exhaust2GasTemp_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_HS_3OvenGrateTemp_1d_avg</t>
+    <t>BF7_L2C_HS3_OvenGrateTemp_1d_avg</t>
   </si>
   <si>
     <t>BF7_L2C_HS_4CombustionChamberTemp_1d_avg</t>
@@ -217,7 +217,7 @@
     <t>BF7_L2C_HS_4Exhaust2GasTemp_1d_avg</t>
   </si>
   <si>
-    <t>BF7_L2C_HS_4OvenGrateTemp_1d_avg</t>
+    <t>BF7_L2C_HS4_OvenGrateTemp_1d_avg</t>
   </si>
   <si>
     <t>统计</t>
@@ -231,11 +231,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
@@ -284,19 +284,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,6 +313,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -329,8 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,14 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -361,30 +360,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,9 +390,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +406,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +449,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +527,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +569,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,121 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +772,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,30 +792,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,11 +820,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,16 +860,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,133 +887,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,11 +1434,11 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="$A4:$XFD5"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5262,7 +5262,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
